--- a/Templates/Civil_and_installation_Sample.xlsx
+++ b/Templates/Civil_and_installation_Sample.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wartsila.sharepoint.com/sites/transas-crmprod/OS2/2f28de6aad0343ba8f49be4599b37088/STC-TME-C-00352-00-N/Opportunity Stage/Proposal/Kenia_KPA_Mombasa_port/Project_Documentation/Civil_Installation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\anazhi\Documents\Coding\KPA\Folder_Ini\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{39086663-0E83-4013-A476-1DE0EFCF165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790A50DB-6356-46DE-9861-29C9F1D17B79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DF672E-2091-4598-BE37-D7D57F8583EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Name" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Site Name'!$A$1:$D$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Site Name'!$A$1:$D$30</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Subsystem</t>
+  </si>
+  <si>
+    <t>Indoor Surge Protection</t>
+  </si>
+  <si>
+    <t>Outdoor Surge Protection</t>
+  </si>
+  <si>
+    <t>Wartsila</t>
   </si>
 </sst>
 </file>
@@ -255,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,24 +291,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{D77B096B-AC9A-406D-857C-B542B1F63876}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -451,6 +464,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -730,10 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB325FD6-16A2-4D3F-8BB2-74D9D2ED1DDA}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,13 +786,13 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -783,8 +804,8 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -796,8 +817,8 @@
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -809,8 +830,8 @@
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -822,8 +843,8 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -835,8 +856,10 @@
       <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -848,8 +871,8 @@
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -861,12 +884,12 @@
       <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
+      <c r="A10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>4</v>
@@ -874,12 +897,12 @@
       <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>4</v>
@@ -887,12 +910,12 @@
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>4</v>
@@ -900,12 +923,12 @@
       <c r="C12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>4</v>
@@ -913,12 +936,12 @@
       <c r="C13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>4</v>
@@ -926,12 +949,12 @@
       <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>4</v>
@@ -939,12 +962,12 @@
       <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>4</v>
@@ -952,12 +975,12 @@
       <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>4</v>
@@ -965,38 +988,38 @@
       <c r="C17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>4</v>
@@ -1004,12 +1027,12 @@
       <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
@@ -1017,12 +1040,12 @@
       <c r="C21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>4</v>
@@ -1030,12 +1053,12 @@
       <c r="C22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>4</v>
@@ -1043,69 +1066,81 @@
       <c r="C23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1197,7 +1232,6 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -1205,7 +1239,6 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -1213,6 +1246,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -1220,110 +1254,113 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="F48" s="3"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -1337,123 +1374,123 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
@@ -1466,26 +1503,26 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
@@ -1498,26 +1535,26 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
@@ -1530,7 +1567,6 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
@@ -1543,14 +1579,13 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
@@ -1565,7 +1600,6 @@
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
@@ -1580,6 +1614,7 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
@@ -1608,7 +1643,6 @@
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
@@ -1616,7 +1650,6 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
@@ -1671,7 +1704,7 @@
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,7 +1712,7 @@
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,7 +1744,7 @@
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="3"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,7 +1752,7 @@
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="3"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,7 +1777,7 @@
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
@@ -1752,7 +1785,7 @@
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
@@ -1784,7 +1817,7 @@
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
@@ -1792,14 +1825,14 @@
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,7 +1840,7 @@
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,6 +1905,7 @@
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="1"/>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
@@ -1879,103 +1913,62 @@
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
+      <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="3"/>
+      <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="3"/>
+      <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="1"/>
+      <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F151" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"Civil works contractor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"Seecool"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"Customer"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"Sunic Ocean"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"Transas"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"Sunic"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"Customer"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
-      <formula>"Customer"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
-      <formula>"Customer"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
-      <formula>"Customer"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
-      <formula>"Customer"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
-      <formula>"Transas"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Wartsila">
+      <formula>NOT(ISERROR(SEARCH("Wartsila",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1" headings="1"/>
@@ -1992,6 +1985,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="76b17b52-2ea8-417e-af34-2abddcf6e21c" xsi:nil="true"/>
@@ -2002,7 +2004,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002842A3E812493F49B79A4501F3C0B165" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a538ef09bd0a5f570607cbedcf377a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2280d7a3-2fc9-40bc-b32c-84392bc8dd9f" xmlns:ns3="76b17b52-2ea8-417e-af34-2abddcf6e21c" xmlns:ns4="d8c02f94-b12e-4466-8cde-62adf2934d43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32c05caa1838d3a8e02547aa09e46fc1" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="2280d7a3-2fc9-40bc-b32c-84392bc8dd9f"/>
@@ -2224,16 +2226,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{674D4431-4312-4057-9402-8AC0850EAB55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5BB304-4AA4-4AAA-B165-EE38593089D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2251,7 +2252,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34AAB2E0-CE15-412D-97B6-97C3EAB14F80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2269,12 +2270,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{674D4431-4312-4057-9402-8AC0850EAB55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>